--- a/src/assets/template/rfid_upload_template.xlsx
+++ b/src/assets/template/rfid_upload_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Office\Rfid_scanner\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D072E1-0B75-476E-8B70-9F48A13C62F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58FF0BF-9082-459A-BC75-28B36DF551C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBB42F5E-47BD-4C82-9C0D-34B69B3ECCAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>description</t>
   </si>
@@ -34,39 +34,6 @@
   </si>
   <si>
     <t>tag</t>
-  </si>
-  <si>
-    <t>jfj94546ntrtt6046</t>
-  </si>
-  <si>
-    <t>towel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hsdh ahasd hd ihdas </t>
-  </si>
-  <si>
-    <t>jfj94546ntrtt6047</t>
-  </si>
-  <si>
-    <t>jfj94546ntrtt6048</t>
-  </si>
-  <si>
-    <t>jfj94546ntrtt6049</t>
-  </si>
-  <si>
-    <t>jfj94546ntrtt6050</t>
-  </si>
-  <si>
-    <t>jfj94546ntrtt6051</t>
-  </si>
-  <si>
-    <t>jfj94546ntrtt6052</t>
-  </si>
-  <si>
-    <t>jfj94546ntrtt6053</t>
-  </si>
-  <si>
-    <t>jfj94546ntrtt6054</t>
   </si>
 </sst>
 </file>
@@ -421,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBB4EAE-CF4F-4344-BC54-AA9DA6AA4FD9}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,105 +412,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
